--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -32,7 +32,9 @@
     <sheet name="更新充值状态" sheetId="22" r:id="rId23"/>
     <sheet name="充值详情" sheetId="23" r:id="rId24"/>
     <sheet name="我的充值列表" sheetId="24" r:id="rId25"/>
-    <sheet name="交易记录" sheetId="20" r:id="rId26"/>
+    <sheet name="站内信列表" sheetId="28" r:id="rId26"/>
+    <sheet name="更新站内信已读" sheetId="29" r:id="rId27"/>
+    <sheet name="交易记录" sheetId="20" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="418">
   <si>
     <t>表名</t>
   </si>
@@ -579,13 +581,13 @@
     <t>站内信列表</t>
   </si>
   <si>
-    <t>/system/app/getNetMailList</t>
-  </si>
-  <si>
-    <t>更新站内信状态</t>
-  </si>
-  <si>
-    <t>/system/app/updateNetMailStatus</t>
+    <t>/system/app/getNoticeList</t>
+  </si>
+  <si>
+    <t>更新站内信已读</t>
+  </si>
+  <si>
+    <t>/system/app/updateNoticeReadStatus</t>
   </si>
   <si>
     <t>交易记录</t>
@@ -594,12 +596,6 @@
     <t>/system/app/getMyTransactionList</t>
   </si>
   <si>
-    <t>后台新增站内信</t>
-  </si>
-  <si>
-    <t>站内信表</t>
-  </si>
-  <si>
     <t>返回目录</t>
   </si>
   <si>
@@ -1270,6 +1266,48 @@
   </si>
   <si>
     <t>rechargeAmountTo</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>noticeId</t>
+  </si>
+  <si>
+    <t>noticeTitle</t>
+  </si>
+  <si>
+    <t>公告标题</t>
+  </si>
+  <si>
+    <t>noticeType</t>
+  </si>
+  <si>
+    <t>公告类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1通知 2公告） </t>
+  </si>
+  <si>
+    <t>noticeContent</t>
+  </si>
+  <si>
+    <t>公告内容</t>
+  </si>
+  <si>
+    <t>公告状态</t>
+  </si>
+  <si>
+    <t>（0正常 1关闭）</t>
+  </si>
+  <si>
+    <t>readFlg</t>
+  </si>
+  <si>
+    <t>用户已读状态</t>
+  </si>
+  <si>
+    <t>（0未读 1已读）</t>
   </si>
 </sst>
 </file>
@@ -2005,9 +2043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2065,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,6 +3371,100 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="3840480"/>
+          <a:ext cx="10728960" cy="6934200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="2560320"/>
+          <a:ext cx="10843260" cy="5859780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -5024,7 +5156,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5035,44 +5167,44 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -5080,21 +5212,21 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -5102,21 +5234,21 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -5124,10 +5256,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -5135,10 +5267,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -5146,34 +5278,34 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5339,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5218,44 +5350,44 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5266,10 +5398,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -5277,42 +5409,42 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5478,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5357,84 +5489,84 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5602,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5481,224 +5613,224 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" t="s">
         <v>280</v>
       </c>
-      <c r="C9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
         <v>281</v>
-      </c>
-      <c r="G9" t="s">
-        <v>282</v>
-      </c>
-      <c r="J9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
         <v>284</v>
-      </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" t="s">
         <v>295</v>
-      </c>
-      <c r="D19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:6">
       <c r="C21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
       <c r="C22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
         <v>284</v>
       </c>
-      <c r="D23" t="s">
-        <v>286</v>
-      </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:7">
@@ -5706,90 +5838,90 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:7">
       <c r="C28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:7">
       <c r="C29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5825,7 +5957,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5836,50 +5968,50 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -5887,136 +6019,136 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" t="s">
         <v>295</v>
-      </c>
-      <c r="D17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
         <v>284</v>
       </c>
-      <c r="D21" t="s">
-        <v>286</v>
-      </c>
       <c r="F21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -6024,90 +6156,90 @@
         <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6141,7 +6273,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -6152,170 +6284,170 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
         <v>295</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" t="s">
         <v>284</v>
       </c>
-      <c r="D19" t="s">
-        <v>286</v>
-      </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -6323,214 +6455,214 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="D30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="D31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="4:7">
       <c r="D32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="D33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="D35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="D36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="D37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="D38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="D39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="4:7">
@@ -6538,10 +6670,10 @@
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -6549,7 +6681,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6583,7 +6715,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -6594,242 +6726,242 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
         <v>280</v>
-      </c>
-      <c r="C13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" t="s">
         <v>295</v>
-      </c>
-      <c r="D22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" t="s">
         <v>284</v>
       </c>
-      <c r="D26" t="s">
-        <v>286</v>
-      </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -6837,90 +6969,90 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6954,7 +7086,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -6965,119 +7097,119 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
         <v>280</v>
-      </c>
-      <c r="C13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -7085,133 +7217,133 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" t="s">
         <v>295</v>
-      </c>
-      <c r="D22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" t="s">
         <v>284</v>
       </c>
-      <c r="D26" t="s">
-        <v>286</v>
-      </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -7219,90 +7351,90 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7338,7 +7470,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -7349,328 +7481,328 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:6">
       <c r="C16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:7">
       <c r="C21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:7">
       <c r="C22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:6">
       <c r="C25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:6">
       <c r="C28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:6">
       <c r="C29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="3:6">
       <c r="C32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="3:7">
       <c r="C33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:6">
       <c r="C34" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="3:7">
@@ -7678,18 +7810,18 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7725,7 +7857,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -7736,50 +7868,50 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -7787,266 +7919,266 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="3:6">
       <c r="C15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:6">
       <c r="C16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:7">
       <c r="C20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:7">
       <c r="C21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
       <c r="C22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:6">
       <c r="C25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:6">
       <c r="C28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:6">
       <c r="C29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="3:7">
       <c r="C32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="3:6">
       <c r="C33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:7">
@@ -8054,18 +8186,18 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8213,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H42"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8102,7 +8234,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -8110,7 +8242,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8118,7 +8250,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8126,7 +8258,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8134,7 +8266,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8142,7 +8274,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8150,15 +8282,15 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8166,7 +8298,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8174,7 +8306,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8182,7 +8314,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8196,7 +8328,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8204,7 +8336,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8212,7 +8344,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8220,7 +8352,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8228,7 +8360,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8236,7 +8368,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8244,7 +8376,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8252,7 +8384,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>164</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8260,7 +8392,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8268,7 +8400,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8276,7 +8408,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8284,7 +8416,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -8292,65 +8424,47 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
-        <v>176</v>
+      <c r="A33" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="2" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8371,7 +8485,7 @@
     <hyperlink ref="A19" location="更新买币状态!A1" display="更新买币状态"/>
     <hyperlink ref="A20" location="买币单详情!A1" display="买币单详情"/>
     <hyperlink ref="A21" location="我的买币列表!A1" display="我的买币列表"/>
-    <hyperlink ref="A35" location="交易记录!A1" display="交易记录"/>
+    <hyperlink ref="A33" location="交易记录!A1" display="交易记录"/>
     <hyperlink ref="A22" location="充值到商户!A1" display="充值到商户"/>
     <hyperlink ref="A23" location="更新充值状态!A1" display="更新充值状态"/>
     <hyperlink ref="A24" location="充值详情!A1" display="充值详情"/>
@@ -8379,6 +8493,8 @@
     <hyperlink ref="A9" location="修改支付密码!A1" display="修改支付密码"/>
     <hyperlink ref="A8" location="获取用户金额信息!A1" display="获取用户金额信息"/>
     <hyperlink ref="A11" location="修改用户信息!A1" display="修改用户信息"/>
+    <hyperlink ref="A26" location="站内信列表!A1" display="站内信列表"/>
+    <hyperlink ref="A27" location="更新站内信已读!A1" display="更新站内信已读"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8406,7 +8522,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -8417,300 +8533,300 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="3:7">
@@ -8718,18 +8834,18 @@
         <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8879,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -8774,114 +8890,114 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -8889,130 +9005,130 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" t="s">
         <v>295</v>
-      </c>
-      <c r="D23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" t="s">
         <v>284</v>
       </c>
-      <c r="D27" t="s">
-        <v>286</v>
-      </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:7">
@@ -9020,90 +9136,90 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9137,7 +9253,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9148,308 +9264,308 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -9457,18 +9573,18 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9502,7 +9618,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9513,47 +9629,47 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -9561,252 +9677,252 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -9814,18 +9930,18 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -9859,7 +9975,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9870,289 +9986,289 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="3:7">
@@ -10160,18 +10276,18 @@
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -10205,7 +10321,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -10216,100 +10332,100 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
         <v>334</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>335</v>
-      </c>
-      <c r="D8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
         <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -10317,252 +10433,252 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D30" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -10570,18 +10686,18 @@
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -10596,13 +10712,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="5" tint="0.6"/>
-  </sheetPr>
-  <dimension ref="A1:I29"/>
+  <sheetPr/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10617,181 +10731,514 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="str">
-        <f>接口目录!B35</f>
-        <v>/system/app/getMyTransactionList</v>
+        <f>接口目录!B26</f>
+        <v>/system/app/getNoticeList</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" location="接口目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="str">
+        <f>接口目录!B27</f>
+        <v>/system/app/updateNoticeReadStatus</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
         <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" location="接口目录!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="5" tint="0.6"/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="28.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="str">
+        <f>接口目录!B33</f>
+        <v>/system/app/getMyTransactionList</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
         <v>295</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" t="s">
         <v>284</v>
       </c>
-      <c r="D19" t="s">
-        <v>286</v>
-      </c>
       <c r="F19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -10799,90 +11246,90 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -10915,7 +11362,7 @@
         <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -10926,17 +11373,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -10944,7 +11391,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -10952,69 +11399,69 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11048,7 +11495,7 @@
         <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11059,17 +11506,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -11077,24 +11524,24 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -11102,27 +11549,27 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -11130,13 +11577,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -11144,171 +11591,171 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="H13" t="s">
         <v>204</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10" t="s">
-        <v>208</v>
+      <c r="B15" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="10" t="s">
-        <v>210</v>
+      <c r="B16" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
         <v>212</v>
       </c>
-      <c r="F17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10" t="s">
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
         <v>214</v>
-      </c>
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11342,7 +11789,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11353,95 +11800,95 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11475,7 +11922,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11486,36 +11933,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -11523,39 +11970,39 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -11589,7 +12036,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11600,36 +12047,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -11637,78 +12084,78 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -11719,7 +12166,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -11730,40 +12177,40 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -11774,37 +12221,37 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="3:9">
@@ -11812,63 +12259,63 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -11876,21 +12323,21 @@
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -11898,52 +12345,52 @@
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
         <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -11951,88 +12398,88 @@
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9">
-      <c r="C40" s="7" t="s">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="7" t="s">
-        <v>233</v>
+      <c r="F43" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="G43" s="6"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -12066,7 +12513,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -12077,36 +12524,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -12114,45 +12561,45 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -12163,51 +12610,48 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" spans="3:9">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="16" s="6" customFormat="1" spans="3:6">
+      <c r="C16" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="16" s="6" customFormat="1" spans="3:6">
-      <c r="C16" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="3:6">
+      <c r="C17" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" spans="3:6">
-      <c r="C17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
+      <c r="F17" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -12241,7 +12685,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -12252,95 +12696,95 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="422">
   <si>
     <t>表名</t>
   </si>
@@ -594,6 +594,18 @@
   </si>
   <si>
     <t>/system/app/getMyTransactionList</t>
+  </si>
+  <si>
+    <t>管理后台</t>
+  </si>
+  <si>
+    <t>流水明细</t>
+  </si>
+  <si>
+    <t>收入明细</t>
+  </si>
+  <si>
+    <t>首页</t>
   </si>
   <si>
     <t>返回目录</t>
@@ -5156,7 +5168,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5167,44 +5179,44 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -5212,21 +5224,21 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -5234,21 +5246,21 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -5256,10 +5268,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -5267,10 +5279,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
@@ -5278,34 +5290,34 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5351,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5350,44 +5362,44 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -5398,10 +5410,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -5409,42 +5421,42 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +5490,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5489,84 +5501,84 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5602,7 +5614,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5613,224 +5625,224 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" t="s">
-        <v>185</v>
-      </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:2">
       <c r="B16" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:6">
       <c r="C21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
       <c r="C22" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:7">
@@ -5838,90 +5850,90 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:7">
       <c r="C28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
         <v>241</v>
-      </c>
-      <c r="F28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:7">
       <c r="C29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D30" t="s">
         <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +5969,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -5968,50 +5980,50 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -6019,136 +6031,136 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:7">
@@ -6156,90 +6168,90 @@
         <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
         <v>241</v>
-      </c>
-      <c r="F26" t="s">
-        <v>231</v>
-      </c>
-      <c r="G26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6273,7 +6285,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -6284,170 +6296,170 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -6455,214 +6467,214 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
         <v>241</v>
-      </c>
-      <c r="F24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="4:7">
       <c r="D29" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="D30" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="D31" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="4:7">
       <c r="D32" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="D33" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="D35" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="D36" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="D37" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="D38" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="D39" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E39" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="4:7">
@@ -6670,10 +6682,10 @@
         <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -6681,7 +6693,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6715,7 +6727,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -6726,242 +6738,242 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -6969,90 +6981,90 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
         <v>241</v>
-      </c>
-      <c r="F31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7086,7 +7098,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -7097,119 +7109,119 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -7217,133 +7229,133 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -7351,90 +7363,90 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
         <v>241</v>
-      </c>
-      <c r="F31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7470,7 +7482,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -7481,328 +7493,328 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" t="s">
         <v>189</v>
       </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:6">
       <c r="C16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:7">
       <c r="C21" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:7">
       <c r="C22" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:6">
       <c r="C25" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:6">
       <c r="C28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:6">
       <c r="C29" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D30" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="3:6">
       <c r="C32" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D32" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="3:7">
       <c r="C33" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:6">
       <c r="C34" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="3:7">
@@ -7810,18 +7822,18 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7857,7 +7869,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -7868,50 +7880,50 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -7919,266 +7931,266 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="3:6">
       <c r="C15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="3:6">
       <c r="C16" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="3:6">
       <c r="C17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
       <c r="C18" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="3:7">
       <c r="C20" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:7">
       <c r="C21" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
       <c r="C22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:6">
       <c r="C23" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:6">
       <c r="C24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:6">
       <c r="C25" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="3:6">
       <c r="C26" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="3:6">
       <c r="C27" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="3:6">
       <c r="C28" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="3:6">
       <c r="C29" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="3:6">
       <c r="C30" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="3:6">
       <c r="C31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="3:7">
       <c r="C32" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="3:6">
       <c r="C33" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="3:7">
@@ -8186,18 +8198,18 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8213,10 +8225,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8465,6 +8477,26 @@
       </c>
       <c r="B33" s="2" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8522,7 +8554,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -8533,300 +8565,300 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D29" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="3:7">
@@ -8834,18 +8866,18 @@
         <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8879,7 +8911,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -8890,114 +8922,114 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -9005,130 +9037,130 @@
         <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="3:7">
@@ -9136,90 +9168,90 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
         <v>241</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D34" t="s">
         <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9253,7 +9285,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9264,308 +9296,308 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -9573,18 +9605,18 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9618,7 +9650,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9629,47 +9661,47 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -9677,252 +9709,252 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:2">
       <c r="B14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D25" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D30" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -9930,18 +9962,18 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9975,7 +10007,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -9986,289 +10018,289 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D25" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D26" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D29" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="3:7">
@@ -10276,18 +10308,18 @@
         <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -10321,7 +10353,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -10332,100 +10364,100 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -10433,252 +10465,252 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F13" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D30" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D31" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D32" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D36" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D37" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -10686,18 +10718,18 @@
         <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -10731,7 +10763,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -10742,143 +10774,143 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
-        <v>185</v>
-      </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -10886,32 +10918,32 @@
         <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -10945,7 +10977,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -10956,79 +10988,79 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11064,7 +11096,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11075,170 +11107,170 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:7">
@@ -11246,90 +11278,90 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
         <v>241</v>
-      </c>
-      <c r="F24" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11362,7 +11394,7 @@
         <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11373,17 +11405,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -11391,7 +11423,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -11399,69 +11431,69 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11495,7 +11527,7 @@
         <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11506,17 +11538,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -11524,24 +11556,24 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -11549,27 +11581,27 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -11577,13 +11609,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -11591,19 +11623,19 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -11611,151 +11643,151 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
         <v>189</v>
       </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11789,7 +11821,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11800,95 +11832,95 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -11922,7 +11954,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -11933,36 +11965,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -11970,39 +12002,39 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12036,7 +12068,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -12047,36 +12079,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -12084,78 +12116,78 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -12166,7 +12198,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -12177,40 +12209,40 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -12221,37 +12253,37 @@
         <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="3:9">
@@ -12259,63 +12291,63 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -12323,21 +12355,21 @@
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
         <v>241</v>
-      </c>
-      <c r="F31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
@@ -12345,52 +12377,52 @@
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
         <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="3:11">
       <c r="C36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="3:6">
@@ -12398,88 +12430,88 @@
         <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G43" s="6"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12513,7 +12545,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -12524,36 +12556,36 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -12561,45 +12593,45 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -12610,48 +12642,48 @@
         <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" spans="3:9">
       <c r="C15" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" spans="3:6">
       <c r="C16" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" spans="3:6">
       <c r="C17" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12685,7 +12717,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -12696,95 +12728,95 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>185</v>
-      </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8567" tabRatio="863" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="22188" windowHeight="8567" tabRatio="863" firstSheet="16" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="456">
   <si>
     <t>表名</t>
   </si>
@@ -1316,6 +1316,18 @@
   </si>
   <si>
     <t>0进行中 1已确认(充值完成) 9已取消</t>
+  </si>
+  <si>
+    <t>rechargeFromUserRemianAmount</t>
+  </si>
+  <si>
+    <t>充值用户充值后余额</t>
+  </si>
+  <si>
+    <t>rechargeToUserRemianAmount</t>
+  </si>
+  <si>
+    <t>被充值用户充值后余额</t>
   </si>
   <si>
     <t>充值ID</t>
@@ -1424,7 +1436,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1479,13 +1491,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1627,7 +1632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,12 +1708,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,10 +2019,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2032,122 +2034,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2167,6 +2166,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2190,7 +2192,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3315,13 +3317,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>341630</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3339,7 +3341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="6217920"/>
+          <a:off x="591820" y="6583680"/>
           <a:ext cx="10820400" cy="6804660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3493,13 +3495,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3517,7 +3519,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="6035040"/>
+          <a:off x="591820" y="6400800"/>
           <a:ext cx="11974830" cy="6804660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3582,13 +3584,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3606,7 +3608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="7132320"/>
+          <a:off x="591820" y="7498080"/>
           <a:ext cx="10088880" cy="7368540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4619,23 +4621,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -4649,8 +4651,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4662,8 +4664,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -4675,8 +4677,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -4688,8 +4690,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4701,8 +4703,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -4714,8 +4716,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4727,8 +4729,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -4740,8 +4742,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -4753,8 +4755,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -4766,8 +4768,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -4779,268 +4781,268 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
         <v>79</v>
       </c>
@@ -5052,8 +5054,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
@@ -5065,8 +5067,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="2" t="s">
         <v>83</v>
       </c>
@@ -5078,8 +5080,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>86</v>
       </c>
@@ -5091,8 +5093,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
@@ -5104,8 +5106,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
@@ -5117,8 +5119,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
@@ -5130,8 +5132,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
@@ -5143,8 +5145,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>98</v>
       </c>
@@ -5156,8 +5158,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
@@ -5169,10 +5171,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5186,8 +5188,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
@@ -5199,21 +5201,21 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="2" t="s">
         <v>108</v>
       </c>
@@ -5225,8 +5227,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="2" t="s">
         <v>110</v>
       </c>
@@ -5238,8 +5240,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
@@ -5251,8 +5253,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="2" t="s">
         <v>115</v>
       </c>
@@ -5264,8 +5266,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
@@ -5277,8 +5279,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
@@ -5290,8 +5292,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="2" t="s">
         <v>79</v>
       </c>
@@ -5303,8 +5305,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="2" t="s">
         <v>81</v>
       </c>
@@ -5316,8 +5318,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -5329,8 +5331,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5342,8 +5344,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
@@ -5355,8 +5357,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
@@ -5851,8 +5853,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8381,8 +8383,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8392,10 +8394,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8408,7 +8410,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8416,7 +8418,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8424,7 +8426,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8432,7 +8434,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8440,7 +8442,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -8448,7 +8450,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8459,7 +8461,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8467,7 +8469,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8475,7 +8477,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8483,7 +8485,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8491,7 +8493,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8499,7 +8501,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8513,7 +8515,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8521,7 +8523,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8529,23 +8531,23 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8553,7 +8555,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8561,7 +8563,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8569,7 +8571,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8577,7 +8579,7 @@
       </c>
     </row>
     <row r="24" hidden="1" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8585,7 +8587,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -8593,7 +8595,7 @@
       </c>
     </row>
     <row r="26" hidden="1" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8601,7 +8603,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -8609,7 +8611,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8617,15 +8619,15 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8633,7 +8635,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -10172,10 +10174,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -10382,33 +10384,34 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" t="s">
-        <v>401</v>
-      </c>
-      <c r="D22" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" t="s">
-        <v>238</v>
+      <c r="C22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F24" t="s">
         <v>242</v>
@@ -10416,10 +10419,10 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F25" t="s">
         <v>242</v>
@@ -10427,10 +10430,10 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
         <v>242</v>
@@ -10438,10 +10441,10 @@
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D27" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F27" t="s">
         <v>242</v>
@@ -10449,10 +10452,10 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F28" t="s">
         <v>242</v>
@@ -10460,56 +10463,79 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" t="s">
-        <v>383</v>
-      </c>
-      <c r="D30" t="s">
-        <v>417</v>
-      </c>
-      <c r="F30" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" t="s">
-        <v>292</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" t="s">
+        <v>417</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>418</v>
       </c>
-      <c r="F32" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10595,7 +10621,7 @@
         <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -10609,7 +10635,7 @@
         <v>418</v>
       </c>
       <c r="F9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10883,10 +10909,10 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -11085,33 +11111,34 @@
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F21" t="s">
-        <v>238</v>
+      <c r="C21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F23" t="s">
         <v>242</v>
@@ -11119,10 +11146,10 @@
     </row>
     <row r="24" spans="3:6">
       <c r="C24" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F24" t="s">
         <v>242</v>
@@ -11130,10 +11157,10 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F25" t="s">
         <v>242</v>
@@ -11141,10 +11168,10 @@
     </row>
     <row r="26" spans="3:6">
       <c r="C26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F26" t="s">
         <v>242</v>
@@ -11152,10 +11179,10 @@
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F27" t="s">
         <v>242</v>
@@ -11163,56 +11190,79 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" t="s">
-        <v>383</v>
-      </c>
-      <c r="D29" t="s">
-        <v>417</v>
-      </c>
-      <c r="F29" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" t="s">
-        <v>292</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>418</v>
       </c>
-      <c r="F31" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11229,10 +11279,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -11320,7 +11370,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C10" t="s">
         <v>295</v>
@@ -11331,7 +11381,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
         <v>295</v>
@@ -11495,33 +11545,34 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" t="s">
-        <v>402</v>
-      </c>
-      <c r="F28" t="s">
-        <v>238</v>
+      <c r="C28" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F30" t="s">
         <v>242</v>
@@ -11529,10 +11580,10 @@
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
         <v>242</v>
@@ -11540,10 +11591,10 @@
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
         <v>242</v>
@@ -11551,10 +11602,10 @@
     </row>
     <row r="33" spans="3:6">
       <c r="C33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
         <v>242</v>
@@ -11562,10 +11613,10 @@
     </row>
     <row r="34" spans="3:6">
       <c r="C34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F34" t="s">
         <v>242</v>
@@ -11573,56 +11624,79 @@
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" t="s">
-        <v>383</v>
-      </c>
-      <c r="D36" t="s">
-        <v>417</v>
-      </c>
-      <c r="F36" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" t="s">
-        <v>292</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="3:7">
       <c r="C38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" t="s">
+        <v>381</v>
+      </c>
+      <c r="D39" t="s">
+        <v>382</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>418</v>
       </c>
-      <c r="F38" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11757,12 +11831,12 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
         <v>327</v>
@@ -11773,10 +11847,10 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
         <v>242</v>
@@ -11784,24 +11858,24 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F17" t="s">
         <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
         <v>242</v>
@@ -11812,42 +11886,42 @@
         <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F19" t="s">
         <v>242</v>
       </c>
       <c r="G19" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F20" t="s">
         <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>307</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -11931,7 +12005,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
         <v>238</v>
@@ -12242,10 +12316,10 @@
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>238</v>
@@ -12256,7 +12330,7 @@
         <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
         <v>242</v>
@@ -12264,10 +12338,10 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
         <v>307</v>
@@ -12275,16 +12349,16 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F17" t="s">
         <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -12314,7 +12388,7 @@
         <v>386</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F20" t="s">
         <v>238</v>
@@ -12322,10 +12396,10 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F21" t="s">
         <v>295</v>
@@ -12336,7 +12410,7 @@
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F22" t="s">
         <v>242</v>
@@ -12493,7 +12567,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -12507,7 +12581,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C14" t="s">
@@ -12521,7 +12595,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C15" t="s">
@@ -12538,7 +12612,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C16" t="s">
@@ -12552,7 +12626,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C17" t="s">
@@ -12566,7 +12640,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C18" t="s">
@@ -12580,7 +12654,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C19" t="s">
@@ -13153,7 +13227,7 @@
       <c r="G26" t="s">
         <v>248</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -13319,7 +13393,7 @@
       <c r="G40" t="s">
         <v>248</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>249</v>
       </c>
     </row>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8567" tabRatio="863" firstSheet="16" activeTab="25"/>
+    <workbookView windowWidth="22188" windowHeight="8567" tabRatio="863" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="458">
   <si>
     <t>表名</t>
   </si>
@@ -1421,6 +1421,12 @@
   </si>
   <si>
     <t>交易金额</t>
+  </si>
+  <si>
+    <t>userRemainAmount</t>
+  </si>
+  <si>
+    <t>交易后余额</t>
   </si>
   <si>
     <t>记录状态</t>
@@ -2159,6 +2165,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2166,9 +2175,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3725,13 +3731,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3749,7 +3755,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="4389120"/>
+          <a:off x="591820" y="4572000"/>
           <a:ext cx="13784580" cy="7292340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5413,7 +5419,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5512,7 +5518,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5546,7 +5552,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5695,7 +5701,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5729,7 +5735,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5834,7 +5840,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5868,7 +5874,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5956,7 +5962,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5990,7 +5996,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6221,7 +6227,7 @@
       <c r="F24" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6334,7 +6340,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6368,7 +6374,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6562,7 +6568,7 @@
       <c r="F22" t="s">
         <v>295</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6675,7 +6681,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6694,8 +6700,8 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -6709,7 +6715,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6886,7 +6892,7 @@
       <c r="F20" t="s">
         <v>295</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7139,10 +7145,10 @@
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7161,7 +7167,7 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -7176,7 +7182,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7425,7 +7431,7 @@
       <c r="F27" t="s">
         <v>295</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7488,20 +7494,20 @@
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" t="s">
@@ -7554,7 +7560,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7573,7 +7579,7 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -7588,7 +7594,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7848,7 +7854,7 @@
       <c r="F27" t="s">
         <v>295</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7911,20 +7917,20 @@
       </c>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="6"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="3:7">
       <c r="C34" t="s">
@@ -7977,7 +7983,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8013,7 +8019,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8364,7 +8370,7 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -8384,7 +8390,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8456,7 +8462,7 @@
       <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8507,10 +8513,10 @@
       <c r="B15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8721,7 +8727,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9061,7 +9067,7 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9080,8 +9086,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -9095,7 +9101,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9418,7 +9424,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9437,7 +9443,7 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -9452,7 +9458,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9792,7 +9798,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9826,7 +9832,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10157,7 +10163,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10191,7 +10197,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10384,14 +10390,14 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10473,14 +10479,14 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10535,7 +10541,7 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10569,7 +10575,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10892,7 +10898,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10911,8 +10917,8 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -10926,7 +10932,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -11111,14 +11117,14 @@
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11200,14 +11206,14 @@
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11262,7 +11268,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11296,7 +11302,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -11545,14 +11551,14 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11634,14 +11640,14 @@
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -11696,7 +11702,7 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11730,7 +11736,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -11910,22 +11916,22 @@
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11959,7 +11965,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12042,7 +12048,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12075,7 +12081,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12174,7 +12180,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12193,9 +12199,9 @@
   <sheetPr>
     <tabColor theme="5" tint="0.599993896298105"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -12210,7 +12216,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12405,22 +12411,34 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
+    <row r="22" spans="3:6">
+      <c r="C22" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>455</v>
-      </c>
-      <c r="F22" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="D23" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12454,7 +12472,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12714,7 +12732,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12748,7 +12766,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12847,7 +12865,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12881,7 +12899,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12961,7 +12979,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -12995,7 +13013,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13431,7 +13449,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13465,7 +13483,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13666,7 +13684,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13700,7 +13718,7 @@
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13811,7 +13829,7 @@
       <c r="F15" t="s">
         <v>244</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13838,7 +13856,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>207</v>
       </c>
     </row>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8567" tabRatio="863" firstSheet="10" activeTab="19"/>
+    <workbookView windowWidth="23040" windowHeight="9060" tabRatio="863" firstSheet="22" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
     <t>交易类型</t>
   </si>
   <si>
-    <t>（0买币 1卖币 2商家直充 3充值From方 4充值到商户(提现) 5手续费 6充值To方）</t>
+    <t>（交易类型（0买币 1卖币 2商家直充 3充值From方 4充值到商户(提现) 5卖币手续费 6充值To方 7卖币退款 8充值手续费））</t>
   </si>
   <si>
     <t>recordAmount</t>
@@ -2302,7 +2302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2342,9 +2342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2367,9 +2364,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
@@ -5268,23 +5262,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5298,8 +5292,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5311,8 +5305,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5324,8 +5318,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -5337,8 +5331,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5350,8 +5344,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -5363,8 +5357,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -5376,8 +5370,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -5389,8 +5383,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -5402,8 +5396,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -5415,8 +5409,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -5428,268 +5422,268 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="20" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="2" t="s">
         <v>79</v>
       </c>
@@ -5701,8 +5695,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
@@ -5714,8 +5708,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="2" t="s">
         <v>83</v>
       </c>
@@ -5727,8 +5721,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="2" t="s">
         <v>86</v>
       </c>
@@ -5740,8 +5734,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
@@ -5753,8 +5747,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
@@ -5766,8 +5760,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
@@ -5779,8 +5773,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
@@ -5792,8 +5786,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="2" t="s">
         <v>98</v>
       </c>
@@ -5805,8 +5799,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
@@ -5818,10 +5812,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5835,8 +5829,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
@@ -5848,21 +5842,21 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="2" t="s">
         <v>108</v>
       </c>
@@ -5874,8 +5868,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="2" t="s">
         <v>110</v>
       </c>
@@ -5887,8 +5881,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
@@ -5900,8 +5894,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="2" t="s">
         <v>115</v>
       </c>
@@ -5913,8 +5907,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
@@ -5926,8 +5920,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
@@ -5939,8 +5933,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="2" t="s">
         <v>79</v>
       </c>
@@ -5952,8 +5946,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="2" t="s">
         <v>81</v>
       </c>
@@ -5965,8 +5959,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -5978,8 +5972,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5991,8 +5985,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
@@ -6004,8 +5998,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
@@ -7161,7 +7155,7 @@
       <c r="J9" t="s">
         <v>315</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>316</v>
       </c>
       <c r="N9" s="6"/>
@@ -7183,7 +7177,7 @@
       <c r="E10" t="s">
         <v>319</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>320</v>
       </c>
       <c r="N10" s="6"/>
@@ -8295,8 +8289,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8309,12 +8303,12 @@
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="10:10">
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8327,7 +8321,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8335,7 +8329,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8343,7 +8337,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8351,7 +8345,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8359,15 +8353,15 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8378,7 +8372,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8386,7 +8380,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8394,7 +8388,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8402,7 +8396,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8410,7 +8404,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8418,10 +8412,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>153</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -8432,7 +8426,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8440,7 +8434,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8448,23 +8442,23 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8472,7 +8466,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8480,7 +8474,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8488,7 +8482,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8496,7 +8490,7 @@
       </c>
     </row>
     <row r="24" hidden="1" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8504,15 +8498,15 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8520,7 +8514,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -8528,7 +8522,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8536,7 +8530,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8544,7 +8538,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8552,7 +8546,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -8560,7 +8554,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -8568,7 +8562,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8576,32 +8570,32 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="23" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -8609,10 +8603,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -8668,8 +8662,8 @@
   <sheetPr/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8970,13 +8964,13 @@
       <c r="F30" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="12" t="s">
@@ -8989,13 +8983,13 @@
       <c r="F31" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="3:11">
       <c r="C32" s="12" t="s">
@@ -9008,13 +9002,13 @@
       <c r="F32" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="15" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="3:11">
       <c r="C33" s="12" t="s">
@@ -9027,13 +9021,13 @@
       <c r="F33" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="15" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="12" t="s">
@@ -9046,13 +9040,13 @@
       <c r="F34" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="15" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
@@ -9144,20 +9138,20 @@
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>268</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>270</v>
       </c>
       <c r="E43" s="6"/>
@@ -13739,8 +13733,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -15215,20 +15209,20 @@
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>268</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>270</v>
       </c>
       <c r="E35" s="6"/>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" tabRatio="863" firstSheet="22" activeTab="33"/>
+    <workbookView windowWidth="23040" windowHeight="8460" tabRatio="863" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -8289,8 +8289,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8299,12 +8299,15 @@
     <col min="2" max="2" width="17.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>125</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="10:10">
@@ -13733,8 +13736,8 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8460" tabRatio="863" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="863" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -8289,8 +8289,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8666,7 +8666,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -10089,8 +10089,8 @@
   <sheetPr/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -14874,8 +14874,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="863" firstSheet="12" activeTab="22"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="863" firstSheet="23" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="504">
   <si>
     <t>表名</t>
   </si>
@@ -1523,6 +1523,15 @@
   </si>
   <si>
     <t>交易金额</t>
+  </si>
+  <si>
+    <t>saleRemainAmount</t>
+  </si>
+  <si>
+    <t>卖币剩余金额</t>
+  </si>
+  <si>
+    <t>交易类型是1且卖币ID对应卖币记录是交易中，才有值。其他为0</t>
   </si>
   <si>
     <t>userRemainAmount</t>
@@ -4361,13 +4370,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4385,7 +4394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="4572000"/>
+          <a:off x="591820" y="4754880"/>
           <a:ext cx="13784580" cy="7292340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8289,8 +8298,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -8666,7 +8675,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -10089,8 +10098,8 @@
   <sheetPr/>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -13734,10 +13743,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -13946,34 +13955,48 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
         <v>487</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>488</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
+      <c r="G22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
-        <v>489</v>
-      </c>
-      <c r="F23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="D24" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -14067,24 +14090,24 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
         <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -14116,7 +14139,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="3:6">
@@ -14154,10 +14177,10 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F18" t="s">
         <v>253</v>
@@ -14165,10 +14188,10 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F19" t="s">
         <v>283</v>
@@ -14176,10 +14199,10 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
         <v>253</v>
@@ -14266,24 +14289,24 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -13745,8 +13745,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>

--- a/OKpay接口设计.xlsx
+++ b/OKpay接口设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="863" firstSheet="23" activeTab="33"/>
+    <workbookView windowWidth="27948" windowHeight="12300" tabRatio="863" firstSheet="19" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="DB设计" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="509">
   <si>
     <t>表名</t>
   </si>
@@ -1495,6 +1495,73 @@
     <t>yyyy-MM-dd HH:mm:ss</t>
   </si>
   <si>
+    <t>recordType</t>
+  </si>
+  <si>
+    <t>（交易类型（0买币 1卖币 2商家直充 3充值From方 4充值到商户(提现) 5卖币手续费 6充值To方 7卖币退款 8充值手续费））</t>
+  </si>
+  <si>
+    <t>多种类型用逗号隔开</t>
+  </si>
+  <si>
+    <t>recordTimeFrom</t>
+  </si>
+  <si>
+    <r>
+      <t>交易时间From(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-mm-dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>recordTimeTo</t>
+  </si>
+  <si>
+    <r>
+      <t>交易时间To(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-mm-dd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>recordId</t>
   </si>
   <si>
@@ -1510,13 +1577,7 @@
     <t>交易时间</t>
   </si>
   <si>
-    <t>recordType</t>
-  </si>
-  <si>
     <t>交易类型</t>
-  </si>
-  <si>
-    <t>（交易类型（0买币 1卖币 2商家直充 3充值From方 4充值到商户(提现) 5卖币手续费 6充值To方 7卖币退款 8充值手续费））</t>
   </si>
   <si>
     <t>recordAmount</t>
@@ -1617,6 +1678,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1625,14 +1687,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2311,7 +2372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2330,34 +2391,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
@@ -4370,18 +4440,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4394,8 +4464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="591820" y="4754880"/>
-          <a:ext cx="13784580" cy="7292340"/>
+          <a:off x="591820" y="5303520"/>
+          <a:ext cx="7376160" cy="6713220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5271,23 +5341,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5301,8 +5371,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5314,8 +5384,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -5327,8 +5397,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -5340,8 +5410,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5353,8 +5423,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
@@ -5366,8 +5436,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -5379,8 +5449,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -5392,8 +5462,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
@@ -5405,8 +5475,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -5418,8 +5488,8 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
@@ -5431,268 +5501,268 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="23" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="23" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="23" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="2" t="s">
         <v>79</v>
       </c>
@@ -5704,8 +5774,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
@@ -5717,8 +5787,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="2" t="s">
         <v>83</v>
       </c>
@@ -5730,8 +5800,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="2" t="s">
         <v>86</v>
       </c>
@@ -5743,8 +5813,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
@@ -5756,8 +5826,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="2" t="s">
         <v>91</v>
       </c>
@@ -5769,8 +5839,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
@@ -5782,8 +5852,8 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
@@ -5795,8 +5865,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="2" t="s">
         <v>98</v>
       </c>
@@ -5808,8 +5878,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
@@ -5821,10 +5891,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5838,8 +5908,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
@@ -5851,21 +5921,21 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="20" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="2" t="s">
         <v>108</v>
       </c>
@@ -5877,8 +5947,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="2" t="s">
         <v>110</v>
       </c>
@@ -5890,8 +5960,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
@@ -5903,8 +5973,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="2" t="s">
         <v>115</v>
       </c>
@@ -5916,8 +5986,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
@@ -5929,8 +5999,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
@@ -5942,8 +6012,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="2" t="s">
         <v>79</v>
       </c>
@@ -5955,8 +6025,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="2" t="s">
         <v>81</v>
       </c>
@@ -5968,8 +6038,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -5981,8 +6051,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="2" t="s">
         <v>94</v>
       </c>
@@ -5994,8 +6064,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="2" t="s">
         <v>96</v>
       </c>
@@ -6007,8 +6077,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="2" t="s">
         <v>98</v>
       </c>
@@ -7158,20 +7228,20 @@
       <c r="E9" t="s">
         <v>313</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>314</v>
       </c>
       <c r="J9" t="s">
         <v>315</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" t="s">
@@ -7186,14 +7256,14 @@
       <c r="E10" t="s">
         <v>319</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" t="s">
@@ -7211,31 +7281,31 @@
       <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="13:18">
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" t="s">
@@ -7247,12 +7317,12 @@
       <c r="D14" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
@@ -7335,7 +7405,7 @@
       <c r="F22" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" t="s">
@@ -8298,7 +8368,7 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -8309,10 +8379,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>125</v>
       </c>
       <c r="J1">
@@ -8320,7 +8390,7 @@
       </c>
     </row>
     <row r="2" ht="17.4" spans="10:10">
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8333,7 +8403,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -8341,7 +8411,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -8349,7 +8419,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -8357,7 +8427,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -8365,15 +8435,15 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8384,7 +8454,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -8392,7 +8462,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -8400,7 +8470,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -8408,7 +8478,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -8416,7 +8486,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -8424,10 +8494,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>153</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -8438,7 +8508,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -8446,7 +8516,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -8454,23 +8524,23 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>164</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8478,7 +8548,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8486,7 +8556,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8494,7 +8564,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="24" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8502,7 +8572,7 @@
       </c>
     </row>
     <row r="24" hidden="1" spans="1:2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8510,15 +8580,15 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -8526,7 +8596,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="24" t="s">
         <v>178</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -8534,7 +8604,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="24" t="s">
         <v>180</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -8542,7 +8612,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>182</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -8550,7 +8620,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -8558,7 +8628,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -8566,7 +8636,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="24" t="s">
         <v>188</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -8574,7 +8644,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -8582,32 +8652,32 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="26" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="26" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="23" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -8615,10 +8685,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -8896,14 +8966,14 @@
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8966,99 +9036,99 @@
       </c>
     </row>
     <row r="30" spans="3:11">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="14" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="3:11">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="14" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="14" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="14" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="14" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" t="s">
@@ -9107,17 +9177,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="3:7">
-      <c r="C39" s="10" t="s">
+    <row r="39" s="14" customFormat="1" spans="3:7">
+      <c r="C39" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="F39" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9150,24 +9220,24 @@
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" t="s">
@@ -9502,77 +9572,77 @@
       </c>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="15" t="s">
         <v>290</v>
       </c>
     </row>
@@ -9623,17 +9693,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" spans="3:7">
-      <c r="C38" s="10" t="s">
+    <row r="38" s="14" customFormat="1" spans="3:7">
+      <c r="C38" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9804,7 +9874,7 @@
       <c r="D10" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10068,15 +10138,15 @@
       <c r="F35" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
@@ -10184,17 +10254,17 @@
       <c r="E9" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
@@ -10456,15 +10526,15 @@
       <c r="F34" t="s">
         <v>253</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
@@ -10819,15 +10889,15 @@
       <c r="F32" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
@@ -11261,15 +11331,15 @@
       <c r="G29" t="s">
         <v>341</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
@@ -11936,14 +12006,14 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12025,14 +12095,14 @@
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12795,14 +12865,14 @@
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12884,14 +12954,14 @@
       </c>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -12965,8 +13035,8 @@
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -13229,14 +13299,14 @@
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -13318,14 +13388,14 @@
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>318</v>
       </c>
     </row>
@@ -13594,17 +13664,17 @@
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="11" t="s">
         <v>476</v>
       </c>
     </row>
@@ -13743,10 +13813,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4"/>
@@ -13832,171 +13902,213 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="2:17">
+      <c r="B10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="Q10" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
         <v>211</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>207</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>213</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>207</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
-        <v>477</v>
-      </c>
-      <c r="D14" t="s">
-        <v>478</v>
-      </c>
-      <c r="F14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
-        <v>480</v>
-      </c>
-      <c r="D16" t="s">
-        <v>481</v>
-      </c>
-      <c r="F16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F17" t="s">
         <v>249</v>
       </c>
-      <c r="G17" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
       <c r="F18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>488</v>
       </c>
       <c r="F19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="F20" t="s">
         <v>249</v>
       </c>
+      <c r="G20" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" t="s">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="F21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D24" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>487</v>
-      </c>
-      <c r="D22" t="s">
-        <v>488</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>492</v>
+      </c>
+      <c r="D25" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" t="s">
         <v>318</v>
       </c>
-      <c r="G22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="3:6">
+      <c r="C26" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>492</v>
-      </c>
-      <c r="F24" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="D27" t="s">
+        <v>497</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -14090,24 +14202,24 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C10" t="s">
         <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -14139,7 +14251,7 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="3:6">
@@ -14177,10 +14289,10 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F18" t="s">
         <v>253</v>
@@ -14188,10 +14300,10 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>283</v>
@@ -14199,10 +14311,10 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D20" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F20" t="s">
         <v>253</v>
@@ -14289,24 +14401,24 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
         <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -14484,7 +14596,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -14498,7 +14610,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="14" t="s">
         <v>227</v>
       </c>
       <c r="C14" t="s">
@@ -14512,7 +14624,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C15" t="s">
@@ -14529,7 +14641,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C16" t="s">
@@ -14543,7 +14655,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C17" t="s">
@@ -14557,7 +14669,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C18" t="s">
@@ -14571,7 +14683,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C19" t="s">
@@ -15144,7 +15256,7 @@
       <c r="G26" t="s">
         <v>259</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="15" t="s">
         <v>260</v>
       </c>
     </row>
@@ -15235,24 +15347,24 @@
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="3:6">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" t="s">
@@ -15330,7 +15442,7 @@
       <c r="G42" t="s">
         <v>259</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="15" t="s">
         <v>260</v>
       </c>
     </row>
@@ -15368,47 +15480,47 @@
       </c>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6" t="s">
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="15" t="s">
         <v>290</v>
       </c>
     </row>
